--- a/res/testcase/PakringOperation/MonthTicketManage/monthTicketCertifi.xlsx
+++ b/res/testcase/PakringOperation/MonthTicketManage/monthTicketCertifi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" tabRatio="913" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="913" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="178">
   <si>
     <t>动作</t>
   </si>
@@ -395,15 +395,6 @@
     <t>UI凭证</t>
   </si>
   <si>
-    <t>选择凭证种类</t>
-  </si>
-  <si>
-    <t>MonthTicketCertifiPage.凭证种类</t>
-  </si>
-  <si>
-    <t>对外凭证</t>
-  </si>
-  <si>
     <t>选择凭证状态</t>
   </si>
   <si>
@@ -458,45 +449,54 @@
     <t>G:\upload\凭证.jpg</t>
   </si>
   <si>
+    <t>输入凭证说明</t>
+  </si>
+  <si>
+    <t>MonthTicketCertifiPage.凭证说明</t>
+  </si>
+  <si>
+    <t>凭证123</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>输入凭证说明</t>
-  </si>
-  <si>
-    <t>MonthTicketCertifiPage.凭证说明</t>
-  </si>
-  <si>
-    <t>凭证123</t>
+    <t>界面截图</t>
+  </si>
+  <si>
+    <t>2月票新增界面</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>界面截图</t>
-  </si>
-  <si>
-    <t>2月票新增界面</t>
+    <t>MonthTicketCertifiPage.确认-提示</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>MonthTicketCertifiPage.确认-提示</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>输入搜索框</t>
   </si>
   <si>
     <t>MonthTicketCertifiPage.搜索框</t>
   </si>
   <si>
+    <t>点击选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>MonthTicketCertifiPage.选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>输入选择停车场</t>
+  </si>
+  <si>
+    <t>MonthTicketCertifiPage.停车场选择</t>
+  </si>
+  <si>
     <t>点击搜索按钮</t>
   </si>
   <si>
@@ -522,18 +522,6 @@
   </si>
   <si>
     <t>4保存后截图</t>
-  </si>
-  <si>
-    <t>点击选择停车场下拉框</t>
-  </si>
-  <si>
-    <t>MonthTicketCertifiPage.选择停车场下拉框</t>
-  </si>
-  <si>
-    <t>输入选择停车场</t>
-  </si>
-  <si>
-    <t>MonthTicketCertifiPage.停车场选择</t>
   </si>
   <si>
     <t>检查列表的文本</t>
@@ -574,10 +562,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -602,21 +590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,7 +598,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,61 +651,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,6 +681,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -730,16 +726,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,31 +748,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,103 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,19 +820,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,13 +904,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,17 +957,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,39 +1013,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1046,23 +1025,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,10 +1062,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,133 +1074,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,13 +1220,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1826,56 +1814,56 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1940,7 +1928,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="B2:D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2034,7 +2022,7 @@
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2051,7 +2039,7 @@
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2066,7 +2054,7 @@
       <c r="A8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2083,13 +2071,13 @@
       <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2100,13 +2088,13 @@
       <c r="A10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -2123,7 +2111,7 @@
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="3" t="s">
         <v>106</v>
       </c>
@@ -2132,13 +2120,13 @@
       <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E12" s="3"/>
@@ -2212,10 +2200,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2306,7 +2294,7 @@
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2323,137 +2311,137 @@
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>125</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" spans="1:5">
+    <row r="8" ht="33" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" ht="33" customHeight="1" spans="1:4">
+    </row>
+    <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" ht="33" customHeight="1" spans="1:5">
+    <row r="10" ht="33" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:4">
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" ht="33" customHeight="1" spans="1:5">
+    <row r="13" ht="33" customHeight="1" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>139</v>
+      <c r="B13" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>135</v>
+      <c r="B14" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>143</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2464,91 +2452,74 @@
       <c r="A16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="3" t="s">
+    </row>
+    <row r="17" ht="33" customHeight="1" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="17" ht="33" customHeight="1" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" ht="33" customHeight="1" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>135</v>
+      <c r="B18" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>153</v>
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" ht="33" customHeight="1" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" ht="33" customHeight="1" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="3" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C36:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C14 C15 C16 C17 C18 C2:C3 C7:C9 C12:C13 C19:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C9 C10 C13 C14 C15 C16 C17 C2:C3 C7:C8 C11:C12 C18:C19">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C24">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C35">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2561,10 +2532,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2644,13 +2615,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>123</v>
@@ -2660,14 +2631,14 @@
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>158</v>
+      <c r="B6" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>159</v>
+      <c r="D6" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2676,28 +2647,30 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>161</v>
+      <c r="B8" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>162</v>
+      <c r="D8" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2705,93 +2678,123 @@
       <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>163</v>
+      <c r="B9" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>86</v>
+      <c r="B10" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3" t="s">
-        <v>165</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>135</v>
+      <c r="B11" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="3" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C30:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C32:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C2:C3 C7:C9 C12:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C8 C12 C13 C2:C3 C6:C7 C9:C11 C14:C15">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C20">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C31">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2806,7 +2809,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2885,13 +2888,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>168</v>
+      <c r="D5" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2900,16 +2903,16 @@
         <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>170</v>
+      <c r="D6" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
@@ -2917,12 +2920,12 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="3" t="s">
         <v>164</v>
       </c>
@@ -2937,9 +2940,9 @@
       <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2959,10 +2962,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3042,13 +3045,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>164</v>
@@ -3058,103 +3061,135 @@
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>158</v>
+      <c r="B6" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>159</v>
+      <c r="D6" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
+    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" ht="31" customHeight="1" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>173</v>
+      <c r="B8" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" ht="31" customHeight="1" spans="1:5">
+        <v>159</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>175</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" ht="31" customHeight="1" spans="1:5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" ht="31" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" ht="31" customHeight="1" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" ht="31" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" ht="31" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" ht="31" customHeight="1" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C24:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C26:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C8 C9 C2:C3 C6:C7">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 C8:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C14 C10:C12">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C25">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -3166,10 +3201,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3249,13 +3284,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>164</v>
@@ -3265,44 +3300,46 @@
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>158</v>
+      <c r="B6" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>159</v>
+      <c r="D6" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
+    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>173</v>
+      <c r="B8" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -3311,60 +3348,90 @@
         <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>175</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C17:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C19:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C8 C9 C2:C3 C6:C7">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C13">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C18">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -3376,10 +3443,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3459,13 +3526,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>123</v>
@@ -3475,14 +3542,14 @@
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>158</v>
+      <c r="B6" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>159</v>
+      <c r="D6" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3491,28 +3558,30 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>161</v>
+      <c r="B8" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>179</v>
+      <c r="D8" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -3526,23 +3595,23 @@
       <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>135</v>
+      <c r="B10" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>153</v>
+      <c r="D10" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -3551,45 +3620,75 @@
         <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C29:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C31:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C9 C10 C2:C3 C7:C8 C11:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C8 C11 C12 C2:C3 C6:C7 C9:C10 C13:C14">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C19">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C30">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
